--- a/Plan/Table/TestData/05.TagData.xlsx
+++ b/Plan/Table/TestData/05.TagData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20E21E7B-B699-4349-B7C2-56F781A9B25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A27AD089-2B6F-4030-B617-885F357235AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="14505" windowHeight="13485" xr2:uid="{6152D3DA-DA4E-4BCE-B242-8611F5C83E67}"/>
+    <workbookView xWindow="12915" yWindow="2835" windowWidth="14505" windowHeight="13485" xr2:uid="{81A5746E-5C71-4BC8-BCA1-7887B4609624}"/>
   </bookViews>
   <sheets>
     <sheet name="05.TagData" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68DBA4E-80CA-49CF-ADA4-DE9CD89E8029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B831E4-007C-4CDD-B6B3-CF47F543C034}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O11"/>
   <sheetViews>

--- a/Plan/Table/TestData/05.TagData.xlsx
+++ b/Plan/Table/TestData/05.TagData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDisdog\Plan\Table\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A27AD089-2B6F-4030-B617-885F357235AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7DA948A-4A5D-4890-9476-CD60F0B4B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="2835" windowWidth="14505" windowHeight="13485" xr2:uid="{81A5746E-5C71-4BC8-BCA1-7887B4609624}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5B128965-9624-419E-A4F5-274D40A7596C}"/>
   </bookViews>
   <sheets>
     <sheet name="05.TagData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -59,58 +59,88 @@
     <t>Tag_Des_1</t>
   </si>
   <si>
+    <t>Card_Tag_001</t>
+  </si>
+  <si>
     <t>Tag_Name_2</t>
   </si>
   <si>
     <t>Tag_Des_2</t>
   </si>
   <si>
+    <t>Card_Tag_002</t>
+  </si>
+  <si>
     <t>Tag_Name_3</t>
   </si>
   <si>
     <t>Tag_Des_3</t>
   </si>
   <si>
+    <t>Card_Tag_003</t>
+  </si>
+  <si>
     <t>Tag_Name_4</t>
   </si>
   <si>
     <t>Tag_Des_4</t>
   </si>
   <si>
+    <t>Card_Tag_004</t>
+  </si>
+  <si>
     <t>Tag_Name_5</t>
   </si>
   <si>
     <t>Tag_Des_5</t>
   </si>
   <si>
+    <t>Card_Tag_005</t>
+  </si>
+  <si>
     <t>Tag_Name_6</t>
   </si>
   <si>
     <t>Tag_Des_6</t>
   </si>
   <si>
+    <t>Card_Tag_006</t>
+  </si>
+  <si>
     <t>Tag_Name_7</t>
   </si>
   <si>
     <t>Tag_Des_7</t>
   </si>
   <si>
+    <t>Card_Tag_007</t>
+  </si>
+  <si>
     <t>Tag_Name_8</t>
   </si>
   <si>
     <t>Tag_Des_8</t>
   </si>
   <si>
+    <t>Card_Tag_008</t>
+  </si>
+  <si>
     <t>Tag_Name_9</t>
   </si>
   <si>
     <t>Tag_Des_9</t>
   </si>
   <si>
+    <t>Card_Tag_009</t>
+  </si>
+  <si>
     <t>Tag_Name_10</t>
   </si>
   <si>
     <t>Tag_Des_10</t>
+  </si>
+  <si>
+    <t>Card_Tag_010</t>
   </si>
   <si>
     <t>Value_1</t>
@@ -523,8 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B831E4-007C-4CDD-B6B3-CF47F543C034}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF8E1AD-77FA-4910-AB94-AAE087C8252B}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -550,34 +579,34 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -593,8 +622,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -635,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -682,13 +711,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -729,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -776,13 +805,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -823,13 +852,13 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -870,13 +899,13 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -917,13 +946,13 @@
         <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -964,13 +993,13 @@
         <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1011,13 +1040,13 @@
         <v>512</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
       </c>
       <c r="F11">
         <v>0</v>
